--- a/Tableau_operations.xlsx
+++ b/Tableau_operations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matice\Desktop\Cours\Cours Archi\parm-esan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E1384E-601E-45EC-B528-72413F6E3683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DE10FC-5C3D-46AA-B407-30E66A0E8200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="-15870" windowWidth="25440" windowHeight="15390" xr2:uid="{6908EFA0-89FA-4A98-89D4-5F74455F0C08}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6908EFA0-89FA-4A98-89D4-5F74455F0C08}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="32">
   <si>
     <t>imm5</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>n°Bit</t>
+  </si>
+  <si>
+    <t>Rd et Rn</t>
   </si>
 </sst>
 </file>
@@ -283,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -299,11 +302,9 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DA3F54-ED86-41E6-8973-B138CFC37CA9}">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -638,55 +639,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="18">
+      <c r="B1" s="17">
         <v>15</v>
       </c>
-      <c r="C1" s="18">
+      <c r="C1" s="17">
         <v>14</v>
       </c>
-      <c r="D1" s="18">
+      <c r="D1" s="17">
         <v>13</v>
       </c>
-      <c r="E1" s="18">
+      <c r="E1" s="17">
         <v>12</v>
       </c>
-      <c r="F1" s="18">
+      <c r="F1" s="17">
         <v>11</v>
       </c>
-      <c r="G1" s="18">
+      <c r="G1" s="17">
         <v>10</v>
       </c>
-      <c r="H1" s="18">
+      <c r="H1" s="17">
         <v>9</v>
       </c>
-      <c r="I1" s="18">
+      <c r="I1" s="17">
         <v>8</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="17">
         <v>7</v>
       </c>
-      <c r="K1" s="18">
+      <c r="K1" s="17">
         <v>6</v>
       </c>
-      <c r="L1" s="18">
+      <c r="L1" s="17">
         <v>5</v>
       </c>
-      <c r="M1" s="18">
-        <v>4</v>
-      </c>
-      <c r="N1" s="18">
-        <v>3</v>
-      </c>
-      <c r="O1" s="18">
+      <c r="M1" s="17">
+        <v>4</v>
+      </c>
+      <c r="N1" s="17">
+        <v>3</v>
+      </c>
+      <c r="O1" s="17">
         <v>2</v>
       </c>
-      <c r="P1" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="18">
+      <c r="P1" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="17">
         <v>0</v>
       </c>
       <c r="R1" s="5" t="s">
@@ -698,12 +699,12 @@
       <c r="T1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2">
@@ -763,12 +764,12 @@
       <c r="T2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="17">
+      <c r="U2" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2">
@@ -828,12 +829,12 @@
       <c r="T3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="17">
+      <c r="U3" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2">
@@ -893,12 +894,12 @@
       <c r="T4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="17">
+      <c r="U4" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2">
@@ -958,12 +959,12 @@
       <c r="T5" s="14">
         <v>0</v>
       </c>
-      <c r="U5" s="17">
+      <c r="U5" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2">
@@ -1023,12 +1024,12 @@
       <c r="T6" s="14">
         <v>1</v>
       </c>
-      <c r="U6" s="17">
+      <c r="U6" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2">
@@ -1088,12 +1089,12 @@
       <c r="T7" s="14">
         <v>0</v>
       </c>
-      <c r="U7" s="17">
+      <c r="U7" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2">
@@ -1153,12 +1154,12 @@
       <c r="T8" s="14">
         <v>1</v>
       </c>
-      <c r="U8" s="17">
+      <c r="U8" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2">
@@ -1218,12 +1219,12 @@
       <c r="T9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="17">
+      <c r="U9" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2">
@@ -1283,12 +1284,12 @@
       <c r="T10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="U10" s="17">
+      <c r="U10" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2">
@@ -1307,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>3</v>
@@ -1348,12 +1349,12 @@
       <c r="T11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="17">
+      <c r="U11" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="2">
@@ -1372,13 +1373,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>3</v>
@@ -1413,341 +1414,14 @@
       <c r="T12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="17">
+      <c r="U12" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
